--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H2">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.136289031111319</v>
+        <v>9.403031</v>
       </c>
       <c r="N2">
-        <v>8.136289031111319</v>
+        <v>28.209093</v>
       </c>
       <c r="O2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="P2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="Q2">
-        <v>22.92343148760247</v>
+        <v>26.53628751641267</v>
       </c>
       <c r="R2">
-        <v>22.92343148760247</v>
+        <v>238.826587647714</v>
       </c>
       <c r="S2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
       <c r="T2">
-        <v>0.09814638657569381</v>
+        <v>0.1079186507462474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H3">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.8425485984477</v>
+        <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>21.8425485984477</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="P3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="Q3">
-        <v>61.53986963793404</v>
+        <v>61.66494655774289</v>
       </c>
       <c r="R3">
-        <v>61.53986963793404</v>
+        <v>554.984519019686</v>
       </c>
       <c r="S3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
       <c r="T3">
-        <v>0.2634821858398034</v>
+        <v>0.2507810418746436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H4">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.0454505548815</v>
+        <v>14.75061866666667</v>
       </c>
       <c r="N4">
-        <v>14.0454505548815</v>
+        <v>44.251856</v>
       </c>
       <c r="O4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="P4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="Q4">
-        <v>39.57208529296273</v>
+        <v>41.62771110545423</v>
       </c>
       <c r="R4">
-        <v>39.57208529296273</v>
+        <v>374.649399949088</v>
       </c>
       <c r="S4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
       <c r="T4">
-        <v>0.1694273906099062</v>
+        <v>0.1692929507707757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H5">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0106664363912</v>
+        <v>19.24455733333333</v>
       </c>
       <c r="N5">
-        <v>19.0106664363912</v>
+        <v>57.733672</v>
       </c>
       <c r="O5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="P5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
       <c r="Q5">
-        <v>53.56123755214654</v>
+        <v>54.31005242069511</v>
       </c>
       <c r="R5">
-        <v>53.56123755214654</v>
+        <v>488.790471786256</v>
       </c>
       <c r="S5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157989</v>
       </c>
       <c r="T5">
-        <v>0.2293217718782009</v>
+        <v>0.2208699154157988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H6">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.87870653269285</v>
+        <v>6.960233</v>
       </c>
       <c r="N6">
-        <v>6.87870653269285</v>
+        <v>20.880699</v>
       </c>
       <c r="O6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="P6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
       <c r="Q6">
-        <v>19.3802797961776</v>
+        <v>19.64246890914467</v>
       </c>
       <c r="R6">
-        <v>19.3802797961776</v>
+        <v>176.782220182302</v>
       </c>
       <c r="S6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437944</v>
       </c>
       <c r="T6">
-        <v>0.08297642671209401</v>
+        <v>0.07988264148437943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H7">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9858659201119</v>
+        <v>14.921556</v>
       </c>
       <c r="N7">
-        <v>12.9858659201119</v>
+        <v>44.764668</v>
       </c>
       <c r="O7">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="P7">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="Q7">
-        <v>36.58677888514211</v>
+        <v>42.110113239896</v>
       </c>
       <c r="R7">
-        <v>36.58677888514211</v>
+        <v>378.991019159064</v>
       </c>
       <c r="S7">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
       <c r="T7">
-        <v>0.1566458383843017</v>
+        <v>0.171254799708155</v>
       </c>
     </row>
   </sheetData>
